--- a/biology/Botanique/Madame_Grégoire_Staechelin/Madame_Grégoire_Staechelin.xlsx
+++ b/biology/Botanique/Madame_Grégoire_Staechelin/Madame_Grégoire_Staechelin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Madame_Gr%C3%A9goire_Staechelin</t>
+          <t>Madame_Grégoire_Staechelin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Madame Grégoire Staechelin' est un cultivar de rosier grimpant obtenu en Espagne par le rosiériste Pedro Dot en 1927[1]. C'est l'un des rosiers les plus connus au monde[2] grâce à sa floraison exubérante.
+'Madame Grégoire Staechelin' est un cultivar de rosier grimpant obtenu en Espagne par le rosiériste Pedro Dot en 1927. C'est l'un des rosiers les plus connus au monde grâce à sa floraison exubérante.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Madame_Gr%C3%A9goire_Staechelin</t>
+          <t>Madame_Grégoire_Staechelin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">'Madame Grégoire Staechelin' est une rose moderne du groupe hybride de thé grimpant[3]. Elle est issue du croisement de 'Frau Karl Druschki' (hybride remontant, Lambert 1901) x 'Château de Clos-Vougeot'. Il s'agit d'un grand rosier grimpant de 245 cm à 610 cm de hauteur (voire plus de 700 cm[4]) et de 305 cm à 610 cm d'envergure. Son feuillage est vert clair et brillant[1]. 
-Ses fleurs délicates de différents tons de rose sont légèrement parfumées[5]. Elles sont grandes, semi-doubles (9 à 16 pétales) et volantées. Elles fleurissent de façon exubérante à la fin du printemps et au début de l'été pendant quatre semaines[6]. La floraison n'est pas remontante. À l'automne,  le buisson se couvre de petits fruits décoratifs[7] en forme de poire[8].
-Cette rose tétraploïde est très populaire chez les jardiniers grâce à sa grande résistance et au fait qu'elle supporte l'ombre[9]. Elle est vigoureuse et saine, mais n'aime pas les sols trop humides. Sa zone de rusticité est 6b.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Madame Grégoire Staechelin' est une rose moderne du groupe hybride de thé grimpant. Elle est issue du croisement de 'Frau Karl Druschki' (hybride remontant, Lambert 1901) x 'Château de Clos-Vougeot'. Il s'agit d'un grand rosier grimpant de 245 cm à 610 cm de hauteur (voire plus de 700 cm) et de 305 cm à 610 cm d'envergure. Son feuillage est vert clair et brillant. 
+Ses fleurs délicates de différents tons de rose sont légèrement parfumées. Elles sont grandes, semi-doubles (9 à 16 pétales) et volantées. Elles fleurissent de façon exubérante à la fin du printemps et au début de l'été pendant quatre semaines. La floraison n'est pas remontante. À l'automne,  le buisson se couvre de petits fruits décoratifs en forme de poire.
+Cette rose tétraploïde est très populaire chez les jardiniers grâce à sa grande résistance et au fait qu'elle supporte l'ombre. Elle est vigoureuse et saine, mais n'aime pas les sols trop humides. Sa zone de rusticité est 6b.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Madame_Gr%C3%A9goire_Staechelin</t>
+          <t>Madame_Grégoire_Staechelin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Award of Garden Merit de la Royal Horticultural Society
 			Rose 'Madame Grégoire Staechelin' (P. Dot, 1927 gr. Hybride de thé, sect. Chinensis. Jardin botanique de Madrid.
